--- a/public/data/testi.xlsx
+++ b/public/data/testi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donny\Desktop\synbio-nextjs-project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A0E63-3479-40C6-96E3-12A386CD8185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF358C-7008-43D1-9F79-D78A55EE313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7785" xr2:uid="{0FB4AFE6-3AF6-49A0-82C2-5EC9642242B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0FB4AFE6-3AF6-49A0-82C2-5EC9642242B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Tjut Meutia</t>
   </si>
   <si>
-    <t>Frans Kaisiepo</t>
-  </si>
-  <si>
     <t>Ratulangi</t>
   </si>
   <si>
     <t>Idham Chalid</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -425,14 +425,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -448,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -456,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
